--- a/reports/DL-GTPL-Broadband-Private-Limited.xlsx
+++ b/reports/DL-GTPL-Broadband-Private-Limited.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="My Sheet" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Attendance Report" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Memo Report" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>Employee Name</t>
   </si>
@@ -31,7 +32,79 @@
     <t>Out Time</t>
   </si>
   <si>
-    <t>Time Given</t>
+    <t>Total Working Hour</t>
+  </si>
+  <si>
+    <t>Patel Sajid Bhai</t>
+  </si>
+  <si>
+    <t>15/07/2020</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3:46:38 pm</t>
+  </si>
+  <si>
+    <t>11:00:00 pm</t>
+  </si>
+  <si>
+    <t>7 hour and 13 minutes.</t>
+  </si>
+  <si>
+    <t>16/07/2020</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1:18:51 pm</t>
+  </si>
+  <si>
+    <t>9 hour and 41 minutes.</t>
+  </si>
+  <si>
+    <t>krunal  danej</t>
+  </si>
+  <si>
+    <t>28/07/2020</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12:34:47 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12:35:01 pm</t>
+  </si>
+  <si>
+    <t>0 hour and 0 minutes.</t>
+  </si>
+  <si>
+    <t>Memo Type</t>
+  </si>
+  <si>
+    <t>Start and End Date</t>
+  </si>
+  <si>
+    <t>Memo Accepted</t>
+  </si>
+  <si>
+    <t>Memo Disapproved</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>01/07/2020 - 31/07/2020</t>
+  </si>
+  <si>
+    <t>out</t>
   </si>
 </sst>
 </file>
@@ -408,11 +481,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="32" customWidth="1"/>
-    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="3" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -438,6 +512,194 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="5" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/reports/DL-GTPL-Broadband-Private-Limited.xlsx
+++ b/reports/DL-GTPL-Broadband-Private-Limited.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="My Sheet" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Attendance Report" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Memo Report" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Employee Name</t>
   </si>
@@ -31,7 +32,19 @@
     <t>Out Time</t>
   </si>
   <si>
-    <t>Time Given</t>
+    <t>Total Working Hour</t>
+  </si>
+  <si>
+    <t>Memo Type</t>
+  </si>
+  <si>
+    <t>Start and End Date</t>
+  </si>
+  <si>
+    <t>Memo Accepted</t>
+  </si>
+  <si>
+    <t>Memo Disapproved</t>
   </si>
 </sst>
 </file>
@@ -412,7 +425,8 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="32" customWidth="1"/>
-    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="3" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -436,6 +450,40 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="5" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/reports/DL-GTPL-Broadband-Private-Limited.xlsx
+++ b/reports/DL-GTPL-Broadband-Private-Limited.xlsx
@@ -5,106 +5,144 @@
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
     <sheet sheetId="1" name="Attendance Report" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Memo Report" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="44">
+  <si>
+    <t>Performance Report</t>
+  </si>
+  <si>
+    <t>SubCompany Name</t>
+  </si>
+  <si>
+    <t>DL-GTPL-Broadband-Private-Limited</t>
+  </si>
+  <si>
+    <t>P =&gt; Present</t>
+  </si>
+  <si>
+    <t>A =&gt; Absent</t>
+  </si>
+  <si>
+    <t>L =&gt; Late</t>
+  </si>
+  <si>
+    <t>HD =&gt; Half-Day</t>
+  </si>
   <si>
     <t>Employee Name</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>In Time</t>
-  </si>
-  <si>
-    <t>Out Time</t>
-  </si>
-  <si>
-    <t>Total Working Hour</t>
+    <t>01/07/2020</t>
+  </si>
+  <si>
+    <t>02/07/2020</t>
+  </si>
+  <si>
+    <t>03/07/2020</t>
+  </si>
+  <si>
+    <t>04/07/2020</t>
+  </si>
+  <si>
+    <t>05/07/2020</t>
+  </si>
+  <si>
+    <t>06/07/2020</t>
+  </si>
+  <si>
+    <t>07/07/2020</t>
+  </si>
+  <si>
+    <t>08/07/2020</t>
+  </si>
+  <si>
+    <t>09/07/2020</t>
+  </si>
+  <si>
+    <t>10/07/2020</t>
+  </si>
+  <si>
+    <t>11/07/2020</t>
+  </si>
+  <si>
+    <t>12/07/2020</t>
+  </si>
+  <si>
+    <t>13/07/2020</t>
+  </si>
+  <si>
+    <t>14/07/2020</t>
+  </si>
+  <si>
+    <t>15/07/2020</t>
+  </si>
+  <si>
+    <t>16/07/2020</t>
+  </si>
+  <si>
+    <t>17/07/2020</t>
+  </si>
+  <si>
+    <t>18/07/2020</t>
+  </si>
+  <si>
+    <t>19/07/2020</t>
+  </si>
+  <si>
+    <t>20/07/2020</t>
+  </si>
+  <si>
+    <t>21/07/2020</t>
+  </si>
+  <si>
+    <t>22/07/2020</t>
+  </si>
+  <si>
+    <t>23/07/2020</t>
+  </si>
+  <si>
+    <t>24/07/2020</t>
+  </si>
+  <si>
+    <t>25/07/2020</t>
+  </si>
+  <si>
+    <t>26/07/2020</t>
+  </si>
+  <si>
+    <t>27/07/2020</t>
+  </si>
+  <si>
+    <t>28/07/2020</t>
+  </si>
+  <si>
+    <t>29/07/2020</t>
+  </si>
+  <si>
+    <t>30/07/2020</t>
+  </si>
+  <si>
+    <t>31/07/2020</t>
   </si>
   <si>
     <t>Patel Sajid Bhai</t>
   </si>
   <si>
-    <t>15/07/2020</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
+    <t>A</t>
   </si>
   <si>
     <t>P</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3:46:38 pm</t>
-  </si>
-  <si>
-    <t>11:00:00 pm</t>
-  </si>
-  <si>
-    <t>7 hour and 13 minutes.</t>
-  </si>
-  <si>
-    <t>16/07/2020</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1:18:51 pm</t>
-  </si>
-  <si>
-    <t>9 hour and 41 minutes.</t>
-  </si>
-  <si>
     <t>krunal  danej</t>
   </si>
   <si>
-    <t>28/07/2020</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12:34:47 pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12:35:01 pm</t>
-  </si>
-  <si>
-    <t>0 hour and 0 minutes.</t>
-  </si>
-  <si>
-    <t>Memo Type</t>
-  </si>
-  <si>
-    <t>Start and End Date</t>
-  </si>
-  <si>
-    <t>Memo Accepted</t>
-  </si>
-  <si>
-    <t>Memo Disapproved</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>01/07/2020 - 31/07/2020</t>
-  </si>
-  <si>
-    <t>out</t>
+    <t>L</t>
   </si>
 </sst>
 </file>
@@ -481,226 +519,348 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="2" width="32" customWidth="1"/>
-    <col min="3" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="28" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:AF10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="S8" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="T8" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="U8" t="s">
         <v>27</v>
       </c>
+      <c r="V8" t="s">
+        <v>28</v>
+      </c>
+      <c r="W8" t="s">
+        <v>29</v>
+      </c>
+      <c r="X8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9" t="s">
+        <v>40</v>
+      </c>
+      <c r="U9" t="s">
+        <v>40</v>
+      </c>
+      <c r="V9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W9" t="s">
+        <v>40</v>
+      </c>
+      <c r="X9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>40</v>
+      </c>
+      <c r="R10" t="s">
+        <v>40</v>
+      </c>
+      <c r="S10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T10" t="s">
+        <v>40</v>
+      </c>
+      <c r="U10" t="s">
+        <v>40</v>
+      </c>
+      <c r="V10" t="s">
+        <v>40</v>
+      </c>
+      <c r="W10" t="s">
+        <v>40</v>
+      </c>
+      <c r="X10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>

--- a/reports/DL-GTPL-Broadband-Private-Limited.xlsx
+++ b/reports/DL-GTPL-Broadband-Private-Limited.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="45">
   <si>
     <t>Performance Report</t>
   </si>
@@ -37,112 +37,115 @@
     <t>Employee Name</t>
   </si>
   <si>
-    <t>01/07/2020</t>
-  </si>
-  <si>
-    <t>02/07/2020</t>
-  </si>
-  <si>
-    <t>03/07/2020</t>
-  </si>
-  <si>
-    <t>04/07/2020</t>
-  </si>
-  <si>
-    <t>05/07/2020</t>
-  </si>
-  <si>
-    <t>06/07/2020</t>
-  </si>
-  <si>
-    <t>07/07/2020</t>
-  </si>
-  <si>
-    <t>08/07/2020</t>
-  </si>
-  <si>
-    <t>09/07/2020</t>
-  </si>
-  <si>
-    <t>10/07/2020</t>
-  </si>
-  <si>
-    <t>11/07/2020</t>
-  </si>
-  <si>
-    <t>12/07/2020</t>
-  </si>
-  <si>
-    <t>13/07/2020</t>
-  </si>
-  <si>
-    <t>14/07/2020</t>
-  </si>
-  <si>
-    <t>15/07/2020</t>
-  </si>
-  <si>
-    <t>16/07/2020</t>
-  </si>
-  <si>
-    <t>17/07/2020</t>
-  </si>
-  <si>
-    <t>18/07/2020</t>
-  </si>
-  <si>
-    <t>19/07/2020</t>
-  </si>
-  <si>
-    <t>20/07/2020</t>
-  </si>
-  <si>
-    <t>21/07/2020</t>
-  </si>
-  <si>
-    <t>22/07/2020</t>
-  </si>
-  <si>
-    <t>23/07/2020</t>
-  </si>
-  <si>
-    <t>24/07/2020</t>
-  </si>
-  <si>
-    <t>25/07/2020</t>
-  </si>
-  <si>
-    <t>26/07/2020</t>
-  </si>
-  <si>
-    <t>27/07/2020</t>
-  </si>
-  <si>
-    <t>28/07/2020</t>
-  </si>
-  <si>
-    <t>29/07/2020</t>
-  </si>
-  <si>
-    <t>30/07/2020</t>
-  </si>
-  <si>
-    <t>31/07/2020</t>
+    <t>01/08/2020</t>
+  </si>
+  <si>
+    <t>02/08/2020</t>
+  </si>
+  <si>
+    <t>03/08/2020</t>
+  </si>
+  <si>
+    <t>04/08/2020</t>
+  </si>
+  <si>
+    <t>05/08/2020</t>
+  </si>
+  <si>
+    <t>06/08/2020</t>
+  </si>
+  <si>
+    <t>07/08/2020</t>
+  </si>
+  <si>
+    <t>08/08/2020</t>
+  </si>
+  <si>
+    <t>09/08/2020</t>
+  </si>
+  <si>
+    <t>10/08/2020</t>
+  </si>
+  <si>
+    <t>11/08/2020</t>
+  </si>
+  <si>
+    <t>12/08/2020</t>
+  </si>
+  <si>
+    <t>13/08/2020</t>
+  </si>
+  <si>
+    <t>14/08/2020</t>
+  </si>
+  <si>
+    <t>15/08/2020</t>
+  </si>
+  <si>
+    <t>16/08/2020</t>
+  </si>
+  <si>
+    <t>17/08/2020</t>
+  </si>
+  <si>
+    <t>18/08/2020</t>
+  </si>
+  <si>
+    <t>19/08/2020</t>
+  </si>
+  <si>
+    <t>20/08/2020</t>
+  </si>
+  <si>
+    <t>21/08/2020</t>
+  </si>
+  <si>
+    <t>22/08/2020</t>
+  </si>
+  <si>
+    <t>23/08/2020</t>
+  </si>
+  <si>
+    <t>24/08/2020</t>
+  </si>
+  <si>
+    <t>25/08/2020</t>
+  </si>
+  <si>
+    <t>26/08/2020</t>
+  </si>
+  <si>
+    <t>27/08/2020</t>
+  </si>
+  <si>
+    <t>28/08/2020</t>
+  </si>
+  <si>
+    <t>29/08/2020</t>
+  </si>
+  <si>
+    <t>30/08/2020</t>
+  </si>
+  <si>
+    <t>31/08/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">krunal  </t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t>Patel Sajid Bhai</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>krunal  danej</t>
   </si>
   <si>
-    <t>L</t>
+    <t>Kevel Kevel Kevel</t>
   </si>
 </sst>
 </file>
@@ -519,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF10"/>
+  <dimension ref="A1:AF12"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
@@ -668,40 +671,40 @@
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
         <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O9" t="s">
         <v>40</v>
@@ -716,46 +719,46 @@
         <v>40</v>
       </c>
       <c r="S9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U9" t="s">
         <v>40</v>
       </c>
       <c r="V9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z9" t="s">
         <v>40</v>
       </c>
       <c r="AA9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AB9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="s">
         <v>40</v>
       </c>
       <c r="AD9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AE9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AF9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
@@ -763,96 +766,292 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AA10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AB10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AC10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>43</v>
       </c>
-      <c r="AD10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF10" t="s">
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U11" t="s">
+        <v>41</v>
+      </c>
+      <c r="V11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W11" t="s">
+        <v>41</v>
+      </c>
+      <c r="X11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>41</v>
+      </c>
+      <c r="R12" t="s">
+        <v>41</v>
+      </c>
+      <c r="S12" t="s">
+        <v>41</v>
+      </c>
+      <c r="T12" t="s">
+        <v>41</v>
+      </c>
+      <c r="U12" t="s">
+        <v>41</v>
+      </c>
+      <c r="V12" t="s">
+        <v>41</v>
+      </c>
+      <c r="W12" t="s">
+        <v>41</v>
+      </c>
+      <c r="X12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF12" t="s">
         <v>40</v>
       </c>
     </row>

--- a/reports/DL-GTPL-Broadband-Private-Limited.xlsx
+++ b/reports/DL-GTPL-Broadband-Private-Limited.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="46">
   <si>
     <t>Performance Report</t>
   </si>
@@ -31,7 +31,7 @@
     <t>L =&gt; Late</t>
   </si>
   <si>
-    <t>HD =&gt; Half-Day</t>
+    <t>M =&gt; Memo Issue</t>
   </si>
   <si>
     <t>Employee Name</t>
@@ -133,19 +133,22 @@
     <t xml:space="preserve">krunal  </t>
   </si>
   <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Patel Sajid Bhai</t>
+  </si>
+  <si>
+    <t>krunal  danej</t>
+  </si>
+  <si>
+    <t>Kevel Kevel Kevel</t>
+  </si>
+  <si>
     <t>L</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Patel Sajid Bhai</t>
-  </si>
-  <si>
-    <t>krunal  danej</t>
-  </si>
-  <si>
-    <t>Kevel Kevel Kevel</t>
   </si>
 </sst>
 </file>
@@ -740,7 +743,7 @@
         <v>41</v>
       </c>
       <c r="Z9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AA9" t="s">
         <v>41</v>
@@ -1052,7 +1055,7 @@
         <v>41</v>
       </c>
       <c r="AF12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/reports/DL-GTPL-Broadband-Private-Limited.xlsx
+++ b/reports/DL-GTPL-Broadband-Private-Limited.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="46">
   <si>
     <t>Performance Report</t>
   </si>
@@ -28,6 +28,9 @@
     <t>A =&gt; Absent</t>
   </si>
   <si>
+    <t>Auguest Report</t>
+  </si>
+  <si>
     <t>L =&gt; Late</t>
   </si>
   <si>
@@ -146,9 +149,6 @@
   </si>
   <si>
     <t>Kevel Kevel Kevel</t>
-  </si>
-  <si>
-    <t>L</t>
   </si>
 </sst>
 </file>
@@ -553,515 +553,521 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AB8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AD8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AF8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
         <v>41</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" t="s">
         <v>41</v>
       </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="P9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R9" t="s">
         <v>41</v>
       </c>
-      <c r="G9" t="s">
+      <c r="S9" t="s">
+        <v>42</v>
+      </c>
+      <c r="T9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" t="s">
         <v>41</v>
       </c>
-      <c r="H9" t="s">
+      <c r="V9" t="s">
+        <v>42</v>
+      </c>
+      <c r="W9" t="s">
+        <v>42</v>
+      </c>
+      <c r="X9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC9" t="s">
         <v>41</v>
       </c>
-      <c r="I9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" t="s">
-        <v>40</v>
-      </c>
-      <c r="P9" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>41</v>
-      </c>
-      <c r="R9" t="s">
-        <v>40</v>
-      </c>
-      <c r="S9" t="s">
-        <v>41</v>
-      </c>
-      <c r="T9" t="s">
-        <v>41</v>
-      </c>
-      <c r="U9" t="s">
-        <v>40</v>
-      </c>
-      <c r="V9" t="s">
-        <v>41</v>
-      </c>
-      <c r="W9" t="s">
-        <v>41</v>
-      </c>
-      <c r="X9" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>40</v>
-      </c>
       <c r="AD9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AE9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AE10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AE11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>42</v>
+      </c>
+      <c r="R12" t="s">
+        <v>42</v>
+      </c>
+      <c r="S12" t="s">
+        <v>42</v>
+      </c>
+      <c r="T12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V12" t="s">
+        <v>42</v>
+      </c>
+      <c r="W12" t="s">
+        <v>42</v>
+      </c>
+      <c r="X12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF12" t="s">
         <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" t="s">
-        <v>41</v>
-      </c>
-      <c r="M12" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O12" t="s">
-        <v>41</v>
-      </c>
-      <c r="P12" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>41</v>
-      </c>
-      <c r="R12" t="s">
-        <v>41</v>
-      </c>
-      <c r="S12" t="s">
-        <v>41</v>
-      </c>
-      <c r="T12" t="s">
-        <v>41</v>
-      </c>
-      <c r="U12" t="s">
-        <v>41</v>
-      </c>
-      <c r="V12" t="s">
-        <v>41</v>
-      </c>
-      <c r="W12" t="s">
-        <v>41</v>
-      </c>
-      <c r="X12" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/reports/DL-GTPL-Broadband-Private-Limited.xlsx
+++ b/reports/DL-GTPL-Broadband-Private-Limited.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="45">
   <si>
     <t>Performance Report</t>
   </si>
@@ -28,7 +28,7 @@
     <t>A =&gt; Absent</t>
   </si>
   <si>
-    <t>Auguest Report</t>
+    <t>September Report</t>
   </si>
   <si>
     <t>L =&gt; Late</t>
@@ -40,115 +40,112 @@
     <t>Employee Name</t>
   </si>
   <si>
-    <t>01/08/2020</t>
-  </si>
-  <si>
-    <t>02/08/2020</t>
-  </si>
-  <si>
-    <t>03/08/2020</t>
-  </si>
-  <si>
-    <t>04/08/2020</t>
-  </si>
-  <si>
-    <t>05/08/2020</t>
-  </si>
-  <si>
-    <t>06/08/2020</t>
-  </si>
-  <si>
-    <t>07/08/2020</t>
-  </si>
-  <si>
-    <t>08/08/2020</t>
-  </si>
-  <si>
-    <t>09/08/2020</t>
-  </si>
-  <si>
-    <t>10/08/2020</t>
-  </si>
-  <si>
-    <t>11/08/2020</t>
-  </si>
-  <si>
-    <t>12/08/2020</t>
-  </si>
-  <si>
-    <t>13/08/2020</t>
-  </si>
-  <si>
-    <t>14/08/2020</t>
-  </si>
-  <si>
-    <t>15/08/2020</t>
-  </si>
-  <si>
-    <t>16/08/2020</t>
-  </si>
-  <si>
-    <t>17/08/2020</t>
-  </si>
-  <si>
-    <t>18/08/2020</t>
-  </si>
-  <si>
-    <t>19/08/2020</t>
-  </si>
-  <si>
-    <t>20/08/2020</t>
-  </si>
-  <si>
-    <t>21/08/2020</t>
-  </si>
-  <si>
-    <t>22/08/2020</t>
-  </si>
-  <si>
-    <t>23/08/2020</t>
-  </si>
-  <si>
-    <t>24/08/2020</t>
-  </si>
-  <si>
-    <t>25/08/2020</t>
-  </si>
-  <si>
-    <t>26/08/2020</t>
-  </si>
-  <si>
-    <t>27/08/2020</t>
-  </si>
-  <si>
-    <t>28/08/2020</t>
-  </si>
-  <si>
-    <t>29/08/2020</t>
-  </si>
-  <si>
-    <t>30/08/2020</t>
-  </si>
-  <si>
-    <t>31/08/2020</t>
+    <t>01/09/2020</t>
+  </si>
+  <si>
+    <t>02/09/2020</t>
+  </si>
+  <si>
+    <t>03/09/2020</t>
+  </si>
+  <si>
+    <t>04/09/2020</t>
+  </si>
+  <si>
+    <t>05/09/2020</t>
+  </si>
+  <si>
+    <t>06/09/2020</t>
+  </si>
+  <si>
+    <t>07/09/2020</t>
+  </si>
+  <si>
+    <t>08/09/2020</t>
+  </si>
+  <si>
+    <t>09/09/2020</t>
+  </si>
+  <si>
+    <t>10/09/2020</t>
+  </si>
+  <si>
+    <t>11/09/2020</t>
+  </si>
+  <si>
+    <t>12/09/2020</t>
+  </si>
+  <si>
+    <t>13/09/2020</t>
+  </si>
+  <si>
+    <t>14/09/2020</t>
+  </si>
+  <si>
+    <t>15/09/2020</t>
+  </si>
+  <si>
+    <t>16/09/2020</t>
+  </si>
+  <si>
+    <t>17/09/2020</t>
+  </si>
+  <si>
+    <t>18/09/2020</t>
+  </si>
+  <si>
+    <t>19/09/2020</t>
+  </si>
+  <si>
+    <t>20/09/2020</t>
+  </si>
+  <si>
+    <t>21/09/2020</t>
+  </si>
+  <si>
+    <t>22/09/2020</t>
+  </si>
+  <si>
+    <t>23/09/2020</t>
+  </si>
+  <si>
+    <t>24/09/2020</t>
+  </si>
+  <si>
+    <t>25/09/2020</t>
+  </si>
+  <si>
+    <t>26/09/2020</t>
+  </si>
+  <si>
+    <t>27/09/2020</t>
+  </si>
+  <si>
+    <t>28/09/2020</t>
+  </si>
+  <si>
+    <t>29/09/2020</t>
+  </si>
+  <si>
+    <t>30/09/2020</t>
   </si>
   <si>
     <t xml:space="preserve">krunal  </t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Patel Sajid Bhai</t>
+  </si>
+  <si>
+    <t>krunal  danej</t>
+  </si>
+  <si>
+    <t>Kevel Kevel Kevel</t>
+  </si>
+  <si>
     <t>P</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Patel Sajid Bhai</t>
-  </si>
-  <si>
-    <t>krunal  danej</t>
-  </si>
-  <si>
-    <t>Kevel Kevel Kevel</t>
   </si>
 </sst>
 </file>
@@ -525,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF12"/>
+  <dimension ref="A1:AE12"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
@@ -573,7 +570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -667,400 +664,385 @@
       <c r="AE8" t="s">
         <v>38</v>
       </c>
-      <c r="AF8" t="s">
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>39</v>
       </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>40</v>
+      </c>
+      <c r="R9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9" t="s">
+        <v>40</v>
+      </c>
+      <c r="U9" t="s">
+        <v>40</v>
+      </c>
+      <c r="V9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W9" t="s">
+        <v>40</v>
+      </c>
+      <c r="X9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>41</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>40</v>
+      </c>
+      <c r="R10" t="s">
+        <v>40</v>
+      </c>
+      <c r="S10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T10" t="s">
+        <v>40</v>
+      </c>
+      <c r="U10" t="s">
+        <v>40</v>
+      </c>
+      <c r="V10" t="s">
+        <v>40</v>
+      </c>
+      <c r="W10" t="s">
+        <v>40</v>
+      </c>
+      <c r="X10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>42</v>
       </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O9" t="s">
-        <v>41</v>
-      </c>
-      <c r="P9" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>42</v>
-      </c>
-      <c r="R9" t="s">
-        <v>41</v>
-      </c>
-      <c r="S9" t="s">
-        <v>42</v>
-      </c>
-      <c r="T9" t="s">
-        <v>42</v>
-      </c>
-      <c r="U9" t="s">
-        <v>41</v>
-      </c>
-      <c r="V9" t="s">
-        <v>42</v>
-      </c>
-      <c r="W9" t="s">
-        <v>42</v>
-      </c>
-      <c r="X9" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>42</v>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>40</v>
+      </c>
+      <c r="R11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T11" t="s">
+        <v>40</v>
+      </c>
+      <c r="U11" t="s">
+        <v>40</v>
+      </c>
+      <c r="V11" t="s">
+        <v>40</v>
+      </c>
+      <c r="W11" t="s">
+        <v>40</v>
+      </c>
+      <c r="X11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>43</v>
       </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" t="s">
-        <v>42</v>
-      </c>
-      <c r="O10" t="s">
-        <v>42</v>
-      </c>
-      <c r="P10" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>42</v>
-      </c>
-      <c r="R10" t="s">
-        <v>42</v>
-      </c>
-      <c r="S10" t="s">
-        <v>42</v>
-      </c>
-      <c r="T10" t="s">
-        <v>42</v>
-      </c>
-      <c r="U10" t="s">
-        <v>42</v>
-      </c>
-      <c r="V10" t="s">
-        <v>42</v>
-      </c>
-      <c r="W10" t="s">
-        <v>42</v>
-      </c>
-      <c r="X10" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
         <v>44</v>
       </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O11" t="s">
-        <v>42</v>
-      </c>
-      <c r="P11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>42</v>
-      </c>
-      <c r="R11" t="s">
-        <v>42</v>
-      </c>
-      <c r="S11" t="s">
-        <v>42</v>
-      </c>
-      <c r="T11" t="s">
-        <v>42</v>
-      </c>
-      <c r="U11" t="s">
-        <v>42</v>
-      </c>
-      <c r="V11" t="s">
-        <v>42</v>
-      </c>
-      <c r="W11" t="s">
-        <v>42</v>
-      </c>
-      <c r="X11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" t="s">
-        <v>42</v>
-      </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="U12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="V12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="X12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Z12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AC12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AD12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AE12" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/reports/DL-GTPL-Broadband-Private-Limited.xlsx
+++ b/reports/DL-GTPL-Broadband-Private-Limited.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="49">
   <si>
     <t>Performance Report</t>
   </si>
@@ -28,7 +28,7 @@
     <t>A =&gt; Absent</t>
   </si>
   <si>
-    <t>September Report</t>
+    <t>October Report</t>
   </si>
   <si>
     <t>L =&gt; Late</t>
@@ -40,94 +40,106 @@
     <t>Employee Name</t>
   </si>
   <si>
-    <t>01/09/2020</t>
-  </si>
-  <si>
-    <t>02/09/2020</t>
-  </si>
-  <si>
-    <t>03/09/2020</t>
-  </si>
-  <si>
-    <t>04/09/2020</t>
-  </si>
-  <si>
-    <t>05/09/2020</t>
-  </si>
-  <si>
-    <t>06/09/2020</t>
-  </si>
-  <si>
-    <t>07/09/2020</t>
-  </si>
-  <si>
-    <t>08/09/2020</t>
-  </si>
-  <si>
-    <t>09/09/2020</t>
-  </si>
-  <si>
-    <t>10/09/2020</t>
-  </si>
-  <si>
-    <t>11/09/2020</t>
-  </si>
-  <si>
-    <t>12/09/2020</t>
-  </si>
-  <si>
-    <t>13/09/2020</t>
-  </si>
-  <si>
-    <t>14/09/2020</t>
-  </si>
-  <si>
-    <t>15/09/2020</t>
-  </si>
-  <si>
-    <t>16/09/2020</t>
-  </si>
-  <si>
-    <t>17/09/2020</t>
-  </si>
-  <si>
-    <t>18/09/2020</t>
-  </si>
-  <si>
-    <t>19/09/2020</t>
-  </si>
-  <si>
-    <t>20/09/2020</t>
-  </si>
-  <si>
-    <t>21/09/2020</t>
-  </si>
-  <si>
-    <t>22/09/2020</t>
-  </si>
-  <si>
-    <t>23/09/2020</t>
-  </si>
-  <si>
-    <t>24/09/2020</t>
-  </si>
-  <si>
-    <t>25/09/2020</t>
-  </si>
-  <si>
-    <t>26/09/2020</t>
-  </si>
-  <si>
-    <t>27/09/2020</t>
-  </si>
-  <si>
-    <t>28/09/2020</t>
-  </si>
-  <si>
-    <t>29/09/2020</t>
-  </si>
-  <si>
-    <t>30/09/2020</t>
+    <t>01/10/2020</t>
+  </si>
+  <si>
+    <t>02/10/2020</t>
+  </si>
+  <si>
+    <t>03/10/2020</t>
+  </si>
+  <si>
+    <t>04/10/2020</t>
+  </si>
+  <si>
+    <t>05/10/2020</t>
+  </si>
+  <si>
+    <t>06/10/2020</t>
+  </si>
+  <si>
+    <t>07/10/2020</t>
+  </si>
+  <si>
+    <t>08/10/2020</t>
+  </si>
+  <si>
+    <t>09/10/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>11/10/2020</t>
+  </si>
+  <si>
+    <t>12/10/2020</t>
+  </si>
+  <si>
+    <t>13/10/2020</t>
+  </si>
+  <si>
+    <t>14/10/2020</t>
+  </si>
+  <si>
+    <t>15/10/2020</t>
+  </si>
+  <si>
+    <t>16/10/2020</t>
+  </si>
+  <si>
+    <t>17/10/2020</t>
+  </si>
+  <si>
+    <t>18/10/2020</t>
+  </si>
+  <si>
+    <t>19/10/2020</t>
+  </si>
+  <si>
+    <t>20/10/2020</t>
+  </si>
+  <si>
+    <t>21/10/2020</t>
+  </si>
+  <si>
+    <t>22/10/2020</t>
+  </si>
+  <si>
+    <t>23/10/2020</t>
+  </si>
+  <si>
+    <t>24/10/2020</t>
+  </si>
+  <si>
+    <t>25/10/2020</t>
+  </si>
+  <si>
+    <t>26/10/2020</t>
+  </si>
+  <si>
+    <t>27/10/2020</t>
+  </si>
+  <si>
+    <t>28/10/2020</t>
+  </si>
+  <si>
+    <t>29/10/2020</t>
+  </si>
+  <si>
+    <t>30/10/2020</t>
+  </si>
+  <si>
+    <t>31/10/2020</t>
+  </si>
+  <si>
+    <t>Working Day</t>
+  </si>
+  <si>
+    <t>Memo Issue</t>
+  </si>
+  <si>
+    <t>Late</t>
   </si>
   <si>
     <t xml:space="preserve">krunal  </t>
@@ -139,10 +151,10 @@
     <t>Patel Sajid Bhai</t>
   </si>
   <si>
+    <t>Umeshbhai Babubhai Savani</t>
+  </si>
+  <si>
     <t>krunal  danej</t>
-  </si>
-  <si>
-    <t>Kevel Kevel Kevel</t>
   </si>
   <si>
     <t>P</t>
@@ -522,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE12"/>
+  <dimension ref="A1:AJ12"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
@@ -570,7 +582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -664,385 +676,445 @@
       <c r="AE8" t="s">
         <v>38</v>
       </c>
+      <c r="AF8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="R9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="S9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="T9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="U9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="V9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="W9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="X9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Y9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Z9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AA9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AB9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AC9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AD9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AE9" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="R10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="S10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="T10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="U10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="V10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="W10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="X10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Y10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Z10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AA10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AB10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AC10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AD10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AE10" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="R11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="S11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="T11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="U11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="V11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="W11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="X11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Y11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Z11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AA11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AB11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AC11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AD11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AE11" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s">
         <v>44</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q12" t="s">
         <v>44</v>
       </c>
       <c r="R12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="S12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="T12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="U12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="V12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="W12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="X12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Y12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Z12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AA12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AB12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AC12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AD12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AE12" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH12">
+        <v>2</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/reports/DL-GTPL-Broadband-Private-Limited.xlsx
+++ b/reports/DL-GTPL-Broadband-Private-Limited.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="152">
   <si>
     <t>Performance Report</t>
   </si>
@@ -28,7 +28,7 @@
     <t>A =&gt; Absent</t>
   </si>
   <si>
-    <t>October Report</t>
+    <t>undefined Report</t>
   </si>
   <si>
     <t>L =&gt; Late</t>
@@ -40,6 +40,369 @@
     <t>Employee Name</t>
   </si>
   <si>
+    <t>02/06/2020</t>
+  </si>
+  <si>
+    <t>03/06/2020</t>
+  </si>
+  <si>
+    <t>04/06/2020</t>
+  </si>
+  <si>
+    <t>05/06/2020</t>
+  </si>
+  <si>
+    <t>06/06/2020</t>
+  </si>
+  <si>
+    <t>07/06/2020</t>
+  </si>
+  <si>
+    <t>08/06/2020</t>
+  </si>
+  <si>
+    <t>09/06/2020</t>
+  </si>
+  <si>
+    <t>10/06/2020</t>
+  </si>
+  <si>
+    <t>11/06/2020</t>
+  </si>
+  <si>
+    <t>12/06/2020</t>
+  </si>
+  <si>
+    <t>13/06/2020</t>
+  </si>
+  <si>
+    <t>14/06/2020</t>
+  </si>
+  <si>
+    <t>15/06/2020</t>
+  </si>
+  <si>
+    <t>16/06/2020</t>
+  </si>
+  <si>
+    <t>17/06/2020</t>
+  </si>
+  <si>
+    <t>18/06/2020</t>
+  </si>
+  <si>
+    <t>19/06/2020</t>
+  </si>
+  <si>
+    <t>20/06/2020</t>
+  </si>
+  <si>
+    <t>21/06/2020</t>
+  </si>
+  <si>
+    <t>22/06/2020</t>
+  </si>
+  <si>
+    <t>23/06/2020</t>
+  </si>
+  <si>
+    <t>24/06/2020</t>
+  </si>
+  <si>
+    <t>25/06/2020</t>
+  </si>
+  <si>
+    <t>26/06/2020</t>
+  </si>
+  <si>
+    <t>27/06/2020</t>
+  </si>
+  <si>
+    <t>28/06/2020</t>
+  </si>
+  <si>
+    <t>29/06/2020</t>
+  </si>
+  <si>
+    <t>30/06/2020</t>
+  </si>
+  <si>
+    <t>01/07/2020</t>
+  </si>
+  <si>
+    <t>02/07/2020</t>
+  </si>
+  <si>
+    <t>03/07/2020</t>
+  </si>
+  <si>
+    <t>Working Day</t>
+  </si>
+  <si>
+    <t>Memo Issue</t>
+  </si>
+  <si>
+    <t>Late</t>
+  </si>
+  <si>
+    <t>Absent</t>
+  </si>
+  <si>
+    <t>08/07/2020</t>
+  </si>
+  <si>
+    <t>09/07/2020</t>
+  </si>
+  <si>
+    <t>10/07/2020</t>
+  </si>
+  <si>
+    <t>11/07/2020</t>
+  </si>
+  <si>
+    <t>12/07/2020</t>
+  </si>
+  <si>
+    <t>13/07/2020</t>
+  </si>
+  <si>
+    <t>14/07/2020</t>
+  </si>
+  <si>
+    <t>15/07/2020</t>
+  </si>
+  <si>
+    <t>16/07/2020</t>
+  </si>
+  <si>
+    <t>17/07/2020</t>
+  </si>
+  <si>
+    <t>18/07/2020</t>
+  </si>
+  <si>
+    <t>19/07/2020</t>
+  </si>
+  <si>
+    <t>20/07/2020</t>
+  </si>
+  <si>
+    <t>21/07/2020</t>
+  </si>
+  <si>
+    <t>22/07/2020</t>
+  </si>
+  <si>
+    <t>23/07/2020</t>
+  </si>
+  <si>
+    <t>24/07/2020</t>
+  </si>
+  <si>
+    <t>25/07/2020</t>
+  </si>
+  <si>
+    <t>26/07/2020</t>
+  </si>
+  <si>
+    <t>27/07/2020</t>
+  </si>
+  <si>
+    <t>28/07/2020</t>
+  </si>
+  <si>
+    <t>29/07/2020</t>
+  </si>
+  <si>
+    <t>30/07/2020</t>
+  </si>
+  <si>
+    <t>31/07/2020</t>
+  </si>
+  <si>
+    <t>01/08/2020</t>
+  </si>
+  <si>
+    <t>02/08/2020</t>
+  </si>
+  <si>
+    <t>03/08/2020</t>
+  </si>
+  <si>
+    <t>04/08/2020</t>
+  </si>
+  <si>
+    <t>05/08/2020</t>
+  </si>
+  <si>
+    <t>06/08/2020</t>
+  </si>
+  <si>
+    <t>07/08/2020</t>
+  </si>
+  <si>
+    <t>08/08/2020</t>
+  </si>
+  <si>
+    <t>09/08/2020</t>
+  </si>
+  <si>
+    <t>10/08/2020</t>
+  </si>
+  <si>
+    <t>11/08/2020</t>
+  </si>
+  <si>
+    <t>12/08/2020</t>
+  </si>
+  <si>
+    <t>13/08/2020</t>
+  </si>
+  <si>
+    <t>14/08/2020</t>
+  </si>
+  <si>
+    <t>15/08/2020</t>
+  </si>
+  <si>
+    <t>16/08/2020</t>
+  </si>
+  <si>
+    <t>17/08/2020</t>
+  </si>
+  <si>
+    <t>18/08/2020</t>
+  </si>
+  <si>
+    <t>19/08/2020</t>
+  </si>
+  <si>
+    <t>20/08/2020</t>
+  </si>
+  <si>
+    <t>21/08/2020</t>
+  </si>
+  <si>
+    <t>22/08/2020</t>
+  </si>
+  <si>
+    <t>23/08/2020</t>
+  </si>
+  <si>
+    <t>24/08/2020</t>
+  </si>
+  <si>
+    <t>25/08/2020</t>
+  </si>
+  <si>
+    <t>26/08/2020</t>
+  </si>
+  <si>
+    <t>27/08/2020</t>
+  </si>
+  <si>
+    <t>28/08/2020</t>
+  </si>
+  <si>
+    <t>29/08/2020</t>
+  </si>
+  <si>
+    <t>30/08/2020</t>
+  </si>
+  <si>
+    <t>31/08/2020</t>
+  </si>
+  <si>
+    <t>01/09/2020</t>
+  </si>
+  <si>
+    <t>02/09/2020</t>
+  </si>
+  <si>
+    <t>03/09/2020</t>
+  </si>
+  <si>
+    <t>04/09/2020</t>
+  </si>
+  <si>
+    <t>05/09/2020</t>
+  </si>
+  <si>
+    <t>06/09/2020</t>
+  </si>
+  <si>
+    <t>07/09/2020</t>
+  </si>
+  <si>
+    <t>08/09/2020</t>
+  </si>
+  <si>
+    <t>09/09/2020</t>
+  </si>
+  <si>
+    <t>10/09/2020</t>
+  </si>
+  <si>
+    <t>11/09/2020</t>
+  </si>
+  <si>
+    <t>12/09/2020</t>
+  </si>
+  <si>
+    <t>13/09/2020</t>
+  </si>
+  <si>
+    <t>14/09/2020</t>
+  </si>
+  <si>
+    <t>15/09/2020</t>
+  </si>
+  <si>
+    <t>16/09/2020</t>
+  </si>
+  <si>
+    <t>17/09/2020</t>
+  </si>
+  <si>
+    <t>18/09/2020</t>
+  </si>
+  <si>
+    <t>19/09/2020</t>
+  </si>
+  <si>
+    <t>20/09/2020</t>
+  </si>
+  <si>
+    <t>21/09/2020</t>
+  </si>
+  <si>
+    <t>22/09/2020</t>
+  </si>
+  <si>
+    <t>23/09/2020</t>
+  </si>
+  <si>
+    <t>24/09/2020</t>
+  </si>
+  <si>
+    <t>25/09/2020</t>
+  </si>
+  <si>
+    <t>26/09/2020</t>
+  </si>
+  <si>
+    <t>27/09/2020</t>
+  </si>
+  <si>
+    <t>28/09/2020</t>
+  </si>
+  <si>
+    <t>29/09/2020</t>
+  </si>
+  <si>
+    <t>30/09/2020</t>
+  </si>
+  <si>
     <t>01/10/2020</t>
   </si>
   <si>
@@ -85,79 +448,25 @@
     <t>15/10/2020</t>
   </si>
   <si>
-    <t>16/10/2020</t>
-  </si>
-  <si>
-    <t>17/10/2020</t>
-  </si>
-  <si>
-    <t>18/10/2020</t>
-  </si>
-  <si>
-    <t>19/10/2020</t>
-  </si>
-  <si>
-    <t>20/10/2020</t>
-  </si>
-  <si>
-    <t>21/10/2020</t>
-  </si>
-  <si>
-    <t>22/10/2020</t>
-  </si>
-  <si>
-    <t>23/10/2020</t>
-  </si>
-  <si>
-    <t>24/10/2020</t>
-  </si>
-  <si>
-    <t>25/10/2020</t>
-  </si>
-  <si>
-    <t>26/10/2020</t>
-  </si>
-  <si>
-    <t>27/10/2020</t>
-  </si>
-  <si>
-    <t>28/10/2020</t>
-  </si>
-  <si>
-    <t>29/10/2020</t>
-  </si>
-  <si>
-    <t>30/10/2020</t>
-  </si>
-  <si>
-    <t>31/10/2020</t>
-  </si>
-  <si>
-    <t>Working Day</t>
-  </si>
-  <si>
-    <t>Memo Issue</t>
-  </si>
-  <si>
-    <t>Late</t>
-  </si>
-  <si>
     <t xml:space="preserve">krunal  </t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
+    <t>P</t>
+  </si>
+  <si>
     <t>Patel Sajid Bhai</t>
   </si>
   <si>
     <t>Umeshbhai Babubhai Savani</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
     <t>krunal  danej</t>
-  </si>
-  <si>
-    <t>P</t>
   </si>
 </sst>
 </file>
@@ -534,7 +843,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:EG12"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
@@ -582,7 +891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -679,115 +988,424 @@
       <c r="AF8" t="s">
         <v>39</v>
       </c>
+      <c r="AG8" t="s">
+        <v>40</v>
+      </c>
       <c r="AH8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AI8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AJ8" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>60</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>63</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>64</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>65</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>66</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>68</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>69</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>78</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>79</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>83</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>85</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>86</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>88</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>89</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>90</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>92</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>93</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>94</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>95</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>97</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>98</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>100</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>101</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CR8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS8" t="s">
+        <v>104</v>
+      </c>
+      <c r="CT8" t="s">
+        <v>105</v>
+      </c>
+      <c r="CU8" t="s">
+        <v>106</v>
+      </c>
+      <c r="CV8" t="s">
+        <v>107</v>
+      </c>
+      <c r="CW8" t="s">
+        <v>108</v>
+      </c>
+      <c r="CX8" t="s">
+        <v>109</v>
+      </c>
+      <c r="CY8" t="s">
+        <v>110</v>
+      </c>
+      <c r="CZ8" t="s">
+        <v>111</v>
+      </c>
+      <c r="DA8" t="s">
+        <v>112</v>
+      </c>
+      <c r="DB8" t="s">
+        <v>113</v>
+      </c>
+      <c r="DC8" t="s">
+        <v>114</v>
+      </c>
+      <c r="DD8" t="s">
+        <v>115</v>
+      </c>
+      <c r="DE8" t="s">
+        <v>116</v>
+      </c>
+      <c r="DF8" t="s">
+        <v>117</v>
+      </c>
+      <c r="DG8" t="s">
+        <v>118</v>
+      </c>
+      <c r="DH8" t="s">
+        <v>119</v>
+      </c>
+      <c r="DI8" t="s">
+        <v>120</v>
+      </c>
+      <c r="DJ8" t="s">
+        <v>121</v>
+      </c>
+      <c r="DK8" t="s">
+        <v>122</v>
+      </c>
+      <c r="DL8" t="s">
+        <v>123</v>
+      </c>
+      <c r="DM8" t="s">
+        <v>124</v>
+      </c>
+      <c r="DN8" t="s">
+        <v>125</v>
+      </c>
+      <c r="DO8" t="s">
+        <v>126</v>
+      </c>
+      <c r="DP8" t="s">
+        <v>127</v>
+      </c>
+      <c r="DQ8" t="s">
+        <v>128</v>
+      </c>
+      <c r="DR8" t="s">
+        <v>129</v>
+      </c>
+      <c r="DS8" t="s">
+        <v>130</v>
+      </c>
+      <c r="DT8" t="s">
+        <v>131</v>
+      </c>
+      <c r="DU8" t="s">
+        <v>132</v>
+      </c>
+      <c r="DV8" t="s">
+        <v>133</v>
+      </c>
+      <c r="DW8" t="s">
+        <v>134</v>
+      </c>
+      <c r="DX8" t="s">
+        <v>135</v>
+      </c>
+      <c r="DY8" t="s">
+        <v>136</v>
+      </c>
+      <c r="DZ8" t="s">
+        <v>137</v>
+      </c>
+      <c r="EA8" t="s">
+        <v>138</v>
+      </c>
+      <c r="EB8" t="s">
+        <v>139</v>
+      </c>
+      <c r="EC8" t="s">
+        <v>140</v>
+      </c>
+      <c r="ED8" t="s">
+        <v>141</v>
+      </c>
+      <c r="EE8" t="s">
+        <v>142</v>
+      </c>
+      <c r="EF8" t="s">
+        <v>143</v>
+      </c>
+      <c r="EG8" t="s">
+        <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="L9" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="M9" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="N9" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="O9" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="P9" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="Q9" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="R9" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="S9" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="T9" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="U9" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="V9" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="W9" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="X9" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="Y9" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="Z9" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="AA9" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="AB9" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="AC9" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="AD9" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="AE9" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="AF9" t="s">
-        <v>44</v>
+        <v>146</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>146</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -795,106 +1413,412 @@
       <c r="AJ9">
         <v>0</v>
       </c>
+      <c r="AK9">
+        <v>118</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>146</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>147</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>147</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>147</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>147</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>146</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>146</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>146</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>147</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>147</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>146</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>146</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>147</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>146</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>146</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>146</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>146</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>146</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>146</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>146</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>146</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>146</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>147</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>146</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>146</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>147</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>146</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>146</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>147</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>146</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>146</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>146</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>146</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>146</v>
+      </c>
+      <c r="CI9" t="s">
+        <v>146</v>
+      </c>
+      <c r="CJ9" t="s">
+        <v>146</v>
+      </c>
+      <c r="CK9" t="s">
+        <v>147</v>
+      </c>
+      <c r="CL9" t="s">
+        <v>146</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>146</v>
+      </c>
+      <c r="CN9" t="s">
+        <v>146</v>
+      </c>
+      <c r="CO9" t="s">
+        <v>146</v>
+      </c>
+      <c r="CP9" t="s">
+        <v>146</v>
+      </c>
+      <c r="CQ9" t="s">
+        <v>146</v>
+      </c>
+      <c r="CR9" t="s">
+        <v>146</v>
+      </c>
+      <c r="CS9" t="s">
+        <v>146</v>
+      </c>
+      <c r="CT9" t="s">
+        <v>146</v>
+      </c>
+      <c r="CU9" t="s">
+        <v>146</v>
+      </c>
+      <c r="CV9" t="s">
+        <v>146</v>
+      </c>
+      <c r="CW9" t="s">
+        <v>146</v>
+      </c>
+      <c r="CX9" t="s">
+        <v>146</v>
+      </c>
+      <c r="CY9" t="s">
+        <v>146</v>
+      </c>
+      <c r="CZ9" t="s">
+        <v>146</v>
+      </c>
+      <c r="DA9" t="s">
+        <v>146</v>
+      </c>
+      <c r="DB9" t="s">
+        <v>146</v>
+      </c>
+      <c r="DC9" t="s">
+        <v>146</v>
+      </c>
+      <c r="DD9" t="s">
+        <v>146</v>
+      </c>
+      <c r="DE9" t="s">
+        <v>146</v>
+      </c>
+      <c r="DF9" t="s">
+        <v>146</v>
+      </c>
+      <c r="DG9" t="s">
+        <v>146</v>
+      </c>
+      <c r="DH9" t="s">
+        <v>146</v>
+      </c>
+      <c r="DI9" t="s">
+        <v>146</v>
+      </c>
+      <c r="DJ9" t="s">
+        <v>146</v>
+      </c>
+      <c r="DK9" t="s">
+        <v>146</v>
+      </c>
+      <c r="DL9" t="s">
+        <v>146</v>
+      </c>
+      <c r="DM9" t="s">
+        <v>146</v>
+      </c>
+      <c r="DN9" t="s">
+        <v>146</v>
+      </c>
+      <c r="DO9" t="s">
+        <v>146</v>
+      </c>
+      <c r="DP9" t="s">
+        <v>146</v>
+      </c>
+      <c r="DQ9" t="s">
+        <v>146</v>
+      </c>
+      <c r="DR9" t="s">
+        <v>146</v>
+      </c>
+      <c r="DS9" t="s">
+        <v>146</v>
+      </c>
+      <c r="DT9" t="s">
+        <v>146</v>
+      </c>
+      <c r="DU9" t="s">
+        <v>146</v>
+      </c>
+      <c r="DV9" t="s">
+        <v>146</v>
+      </c>
+      <c r="DW9" t="s">
+        <v>146</v>
+      </c>
+      <c r="DX9" t="s">
+        <v>146</v>
+      </c>
+      <c r="DY9" t="s">
+        <v>146</v>
+      </c>
+      <c r="DZ9" t="s">
+        <v>146</v>
+      </c>
+      <c r="EA9" t="s">
+        <v>146</v>
+      </c>
+      <c r="EB9" t="s">
+        <v>146</v>
+      </c>
+      <c r="EC9" t="s">
+        <v>146</v>
+      </c>
+      <c r="ED9" t="s">
+        <v>146</v>
+      </c>
+      <c r="EE9" t="s">
+        <v>146</v>
+      </c>
+      <c r="EF9" t="s">
+        <v>146</v>
+      </c>
+      <c r="EG9" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="K10" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="L10" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="M10" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="N10" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="O10" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="P10" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="Q10" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="R10" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="S10" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="T10" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="U10" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="V10" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="W10" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="X10" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="Y10" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="Z10" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="AA10" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="AB10" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="AC10" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="AD10" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="AE10" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="AF10" t="s">
-        <v>44</v>
+        <v>146</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>146</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI10">
         <v>0</v>
@@ -902,219 +1826,1134 @@
       <c r="AJ10">
         <v>0</v>
       </c>
+      <c r="AK10">
+        <v>134</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>146</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>146</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>146</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>146</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>146</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>146</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>146</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>146</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>146</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>146</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>146</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>146</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>146</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>146</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>146</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>146</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>146</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>146</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>146</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>146</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>146</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>146</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>146</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>146</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>146</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>146</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>146</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>146</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>146</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>146</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>146</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>146</v>
+      </c>
+      <c r="CI10" t="s">
+        <v>146</v>
+      </c>
+      <c r="CJ10" t="s">
+        <v>146</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>146</v>
+      </c>
+      <c r="CL10" t="s">
+        <v>146</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>146</v>
+      </c>
+      <c r="CN10" t="s">
+        <v>146</v>
+      </c>
+      <c r="CO10" t="s">
+        <v>146</v>
+      </c>
+      <c r="CP10" t="s">
+        <v>146</v>
+      </c>
+      <c r="CQ10" t="s">
+        <v>146</v>
+      </c>
+      <c r="CR10" t="s">
+        <v>146</v>
+      </c>
+      <c r="CS10" t="s">
+        <v>146</v>
+      </c>
+      <c r="CT10" t="s">
+        <v>146</v>
+      </c>
+      <c r="CU10" t="s">
+        <v>146</v>
+      </c>
+      <c r="CV10" t="s">
+        <v>146</v>
+      </c>
+      <c r="CW10" t="s">
+        <v>146</v>
+      </c>
+      <c r="CX10" t="s">
+        <v>146</v>
+      </c>
+      <c r="CY10" t="s">
+        <v>146</v>
+      </c>
+      <c r="CZ10" t="s">
+        <v>146</v>
+      </c>
+      <c r="DA10" t="s">
+        <v>146</v>
+      </c>
+      <c r="DB10" t="s">
+        <v>146</v>
+      </c>
+      <c r="DC10" t="s">
+        <v>146</v>
+      </c>
+      <c r="DD10" t="s">
+        <v>146</v>
+      </c>
+      <c r="DE10" t="s">
+        <v>146</v>
+      </c>
+      <c r="DF10" t="s">
+        <v>146</v>
+      </c>
+      <c r="DG10" t="s">
+        <v>146</v>
+      </c>
+      <c r="DH10" t="s">
+        <v>146</v>
+      </c>
+      <c r="DI10" t="s">
+        <v>146</v>
+      </c>
+      <c r="DJ10" t="s">
+        <v>146</v>
+      </c>
+      <c r="DK10" t="s">
+        <v>146</v>
+      </c>
+      <c r="DL10" t="s">
+        <v>146</v>
+      </c>
+      <c r="DM10" t="s">
+        <v>146</v>
+      </c>
+      <c r="DN10" t="s">
+        <v>146</v>
+      </c>
+      <c r="DO10" t="s">
+        <v>146</v>
+      </c>
+      <c r="DP10" t="s">
+        <v>146</v>
+      </c>
+      <c r="DQ10" t="s">
+        <v>146</v>
+      </c>
+      <c r="DR10" t="s">
+        <v>146</v>
+      </c>
+      <c r="DS10" t="s">
+        <v>146</v>
+      </c>
+      <c r="DT10" t="s">
+        <v>146</v>
+      </c>
+      <c r="DU10" t="s">
+        <v>146</v>
+      </c>
+      <c r="DV10" t="s">
+        <v>146</v>
+      </c>
+      <c r="DW10" t="s">
+        <v>146</v>
+      </c>
+      <c r="DX10" t="s">
+        <v>146</v>
+      </c>
+      <c r="DY10" t="s">
+        <v>146</v>
+      </c>
+      <c r="DZ10" t="s">
+        <v>146</v>
+      </c>
+      <c r="EA10" t="s">
+        <v>146</v>
+      </c>
+      <c r="EB10" t="s">
+        <v>146</v>
+      </c>
+      <c r="EC10" t="s">
+        <v>146</v>
+      </c>
+      <c r="ED10" t="s">
+        <v>146</v>
+      </c>
+      <c r="EE10" t="s">
+        <v>146</v>
+      </c>
+      <c r="EF10" t="s">
+        <v>146</v>
+      </c>
+      <c r="EG10" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="K11" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="N11" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="O11" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="P11" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="Q11" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="R11" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="S11" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="T11" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="U11" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="V11" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="W11" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="X11" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="Y11" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="Z11" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="AA11" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="AB11" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="AC11" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="AD11" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="AE11" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="AF11" t="s">
-        <v>44</v>
+        <v>146</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>146</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
         <v>0</v>
       </c>
+      <c r="AK11">
+        <v>128</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>146</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>150</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>146</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>146</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>146</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>147</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>146</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>147</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>146</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>146</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>146</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>146</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>146</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>146</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>146</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>146</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>146</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>146</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>146</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>146</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>146</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>146</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>146</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>146</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>147</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>146</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>146</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>146</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>146</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>146</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>146</v>
+      </c>
+      <c r="CC11" t="s">
+        <v>146</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>146</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>146</v>
+      </c>
+      <c r="CF11" t="s">
+        <v>146</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>146</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>146</v>
+      </c>
+      <c r="CI11" t="s">
+        <v>146</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>146</v>
+      </c>
+      <c r="CK11" t="s">
+        <v>146</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>146</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>146</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>146</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>146</v>
+      </c>
+      <c r="CP11" t="s">
+        <v>146</v>
+      </c>
+      <c r="CQ11" t="s">
+        <v>146</v>
+      </c>
+      <c r="CR11" t="s">
+        <v>146</v>
+      </c>
+      <c r="CS11" t="s">
+        <v>146</v>
+      </c>
+      <c r="CT11" t="s">
+        <v>146</v>
+      </c>
+      <c r="CU11" t="s">
+        <v>146</v>
+      </c>
+      <c r="CV11" t="s">
+        <v>146</v>
+      </c>
+      <c r="CW11" t="s">
+        <v>146</v>
+      </c>
+      <c r="CX11" t="s">
+        <v>146</v>
+      </c>
+      <c r="CY11" t="s">
+        <v>146</v>
+      </c>
+      <c r="CZ11" t="s">
+        <v>146</v>
+      </c>
+      <c r="DA11" t="s">
+        <v>146</v>
+      </c>
+      <c r="DB11" t="s">
+        <v>146</v>
+      </c>
+      <c r="DC11" t="s">
+        <v>146</v>
+      </c>
+      <c r="DD11" t="s">
+        <v>146</v>
+      </c>
+      <c r="DE11" t="s">
+        <v>146</v>
+      </c>
+      <c r="DF11" t="s">
+        <v>146</v>
+      </c>
+      <c r="DG11" t="s">
+        <v>146</v>
+      </c>
+      <c r="DH11" t="s">
+        <v>146</v>
+      </c>
+      <c r="DI11" t="s">
+        <v>146</v>
+      </c>
+      <c r="DJ11" t="s">
+        <v>146</v>
+      </c>
+      <c r="DK11" t="s">
+        <v>146</v>
+      </c>
+      <c r="DL11" t="s">
+        <v>146</v>
+      </c>
+      <c r="DM11" t="s">
+        <v>147</v>
+      </c>
+      <c r="DN11" t="s">
+        <v>147</v>
+      </c>
+      <c r="DO11" t="s">
+        <v>146</v>
+      </c>
+      <c r="DP11" t="s">
+        <v>146</v>
+      </c>
+      <c r="DQ11" t="s">
+        <v>146</v>
+      </c>
+      <c r="DR11" t="s">
+        <v>146</v>
+      </c>
+      <c r="DS11" t="s">
+        <v>146</v>
+      </c>
+      <c r="DT11" t="s">
+        <v>146</v>
+      </c>
+      <c r="DU11" t="s">
+        <v>146</v>
+      </c>
+      <c r="DV11" t="s">
+        <v>146</v>
+      </c>
+      <c r="DW11" t="s">
+        <v>146</v>
+      </c>
+      <c r="DX11" t="s">
+        <v>146</v>
+      </c>
+      <c r="DY11" t="s">
+        <v>146</v>
+      </c>
+      <c r="DZ11" t="s">
+        <v>146</v>
+      </c>
+      <c r="EA11" t="s">
+        <v>146</v>
+      </c>
+      <c r="EB11" t="s">
+        <v>146</v>
+      </c>
+      <c r="EC11" t="s">
+        <v>146</v>
+      </c>
+      <c r="ED11" t="s">
+        <v>146</v>
+      </c>
+      <c r="EE11" t="s">
+        <v>146</v>
+      </c>
+      <c r="EF11" t="s">
+        <v>146</v>
+      </c>
+      <c r="EG11" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="M12" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="N12" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="O12" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="P12" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="Q12" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="R12" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="S12" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="T12" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="U12" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="V12" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="W12" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="X12" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="Y12" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="Z12" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="AA12" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="AB12" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="AC12" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="AD12" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="AE12" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="AF12" t="s">
-        <v>44</v>
+        <v>146</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>146</v>
       </c>
       <c r="AH12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI12">
         <v>0</v>
       </c>
       <c r="AJ12">
         <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>131</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>146</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>146</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>146</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>146</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>146</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>146</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>146</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>146</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>146</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>146</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>146</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>146</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>146</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>146</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>146</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>146</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>146</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>146</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>146</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>146</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>146</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>146</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>146</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>146</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>146</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>146</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>146</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>146</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>146</v>
+      </c>
+      <c r="CC12" t="s">
+        <v>146</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>146</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>146</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>146</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>146</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>146</v>
+      </c>
+      <c r="CI12" t="s">
+        <v>146</v>
+      </c>
+      <c r="CJ12" t="s">
+        <v>146</v>
+      </c>
+      <c r="CK12" t="s">
+        <v>146</v>
+      </c>
+      <c r="CL12" t="s">
+        <v>146</v>
+      </c>
+      <c r="CM12" t="s">
+        <v>146</v>
+      </c>
+      <c r="CN12" t="s">
+        <v>146</v>
+      </c>
+      <c r="CO12" t="s">
+        <v>146</v>
+      </c>
+      <c r="CP12" t="s">
+        <v>146</v>
+      </c>
+      <c r="CQ12" t="s">
+        <v>146</v>
+      </c>
+      <c r="CR12" t="s">
+        <v>146</v>
+      </c>
+      <c r="CS12" t="s">
+        <v>146</v>
+      </c>
+      <c r="CT12" t="s">
+        <v>146</v>
+      </c>
+      <c r="CU12" t="s">
+        <v>146</v>
+      </c>
+      <c r="CV12" t="s">
+        <v>146</v>
+      </c>
+      <c r="CW12" t="s">
+        <v>146</v>
+      </c>
+      <c r="CX12" t="s">
+        <v>146</v>
+      </c>
+      <c r="CY12" t="s">
+        <v>146</v>
+      </c>
+      <c r="CZ12" t="s">
+        <v>146</v>
+      </c>
+      <c r="DA12" t="s">
+        <v>146</v>
+      </c>
+      <c r="DB12" t="s">
+        <v>146</v>
+      </c>
+      <c r="DC12" t="s">
+        <v>146</v>
+      </c>
+      <c r="DD12" t="s">
+        <v>146</v>
+      </c>
+      <c r="DE12" t="s">
+        <v>146</v>
+      </c>
+      <c r="DF12" t="s">
+        <v>146</v>
+      </c>
+      <c r="DG12" t="s">
+        <v>146</v>
+      </c>
+      <c r="DH12" t="s">
+        <v>146</v>
+      </c>
+      <c r="DI12" t="s">
+        <v>146</v>
+      </c>
+      <c r="DJ12" t="s">
+        <v>146</v>
+      </c>
+      <c r="DK12" t="s">
+        <v>146</v>
+      </c>
+      <c r="DL12" t="s">
+        <v>146</v>
+      </c>
+      <c r="DM12" t="s">
+        <v>146</v>
+      </c>
+      <c r="DN12" t="s">
+        <v>146</v>
+      </c>
+      <c r="DO12" t="s">
+        <v>147</v>
+      </c>
+      <c r="DP12" t="s">
+        <v>146</v>
+      </c>
+      <c r="DQ12" t="s">
+        <v>146</v>
+      </c>
+      <c r="DR12" t="s">
+        <v>146</v>
+      </c>
+      <c r="DS12" t="s">
+        <v>147</v>
+      </c>
+      <c r="DT12" t="s">
+        <v>146</v>
+      </c>
+      <c r="DU12" t="s">
+        <v>146</v>
+      </c>
+      <c r="DV12" t="s">
+        <v>146</v>
+      </c>
+      <c r="DW12" t="s">
+        <v>146</v>
+      </c>
+      <c r="DX12" t="s">
+        <v>146</v>
+      </c>
+      <c r="DY12" t="s">
+        <v>147</v>
+      </c>
+      <c r="DZ12" t="s">
+        <v>146</v>
+      </c>
+      <c r="EA12" t="s">
+        <v>146</v>
+      </c>
+      <c r="EB12" t="s">
+        <v>146</v>
+      </c>
+      <c r="EC12" t="s">
+        <v>146</v>
+      </c>
+      <c r="ED12" t="s">
+        <v>146</v>
+      </c>
+      <c r="EE12" t="s">
+        <v>147</v>
+      </c>
+      <c r="EF12" t="s">
+        <v>146</v>
+      </c>
+      <c r="EG12" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
